--- a/TECH/TEST/UAT/WORK IN PROGRESS/Feedbacks.xlsx
+++ b/TECH/TEST/UAT/WORK IN PROGRESS/Feedbacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmb/learning/MTECH/SE25PT7SERIS/TECH/TEST/UAT/WORK IN PROGRESS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB89DD-BB29-6F45-AD1E-1879912D219B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B91412-1F05-6842-9C0C-5EFFCDA63097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14280" xr2:uid="{4C69F909-1243-344A-8087-FCABD4872C48}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14140" xr2:uid="{4C69F909-1243-344A-8087-FCABD4872C48}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedbacks" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Cannot delete or remove user</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Want to have 2 hr line graph for realtime data</t>
-  </si>
-  <si>
-    <t>Want to show fast-data start date(born date) for each station</t>
   </si>
   <si>
     <t>DownlaodScreen</t>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>Want to add photos caupture by stations</t>
+  </si>
+  <si>
+    <t>Fixed at station side</t>
+  </si>
+  <si>
+    <t>Want to show slow-data start date(born date) for each station</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,47 +541,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -586,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -603,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -620,13 +623,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -634,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -648,13 +651,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -662,13 +665,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -676,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -690,13 +693,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -704,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,125 +721,128 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -874,23 +880,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
